--- a/Assessments/Exam-Msft-AZ-900-Self-Assessment-Build5Nines.xlsx
+++ b/Assessments/Exam-Msft-AZ-900-Self-Assessment-Build5Nines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2060\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="810" documentId="11_D9DEADA52AFC04C703D00068A70CDD6EE27F7719" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A31FAACF-FCA5-4E7E-8DA2-D22ADB108D07}"/>
+  <xr:revisionPtr revIDLastSave="811" documentId="11_D9DEADA52AFC04C703D00068A70CDD6EE27F7719" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8EB8C4D8-F488-4F98-8E87-4A804A0CC5D8}"/>
   <bookViews>
     <workbookView xWindow="165" yWindow="23505" windowWidth="29160" windowHeight="18300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
     <t>Exam AZ-900: Azure Fundamentals</t>
   </si>
   <si>
-    <t>https://docs.microsoft.com/en-us/learn/certifications/exams/az-900</t>
+    <t>https://docs.microsoft.com/learn/certifications/exams/az-900</t>
   </si>
   <si>
     <t>Objective Domains</t>
@@ -657,10 +657,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2864,7 +2864,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
